--- a/data/trans_dic/P07B_R2_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P07B_R2_2023-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8408216814428502</v>
+        <v>0.8391360125443434</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8109578053047708</v>
+        <v>0.8121290432848538</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8327439061748253</v>
+        <v>0.8355883663499907</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9001043659633104</v>
+        <v>0.8987056841617687</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8622240024657672</v>
+        <v>0.8601270589710589</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8713423500599108</v>
+        <v>0.8737866774888089</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.9369746306378535</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9063177711383371</v>
+        <v>0.906317771138337</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.9204964676140767</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9169442755716772</v>
+        <v>0.9181806394845293</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.889519397819397</v>
+        <v>0.8908414566550167</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9085484357133815</v>
+        <v>0.9093928806474109</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.951663886538239</v>
+        <v>0.9520771182830423</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9196635618513372</v>
+        <v>0.920258844777994</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9316822374865019</v>
+        <v>0.9308416021103273</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9571883156793629</v>
+        <v>0.957188315679363</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9172413907700178</v>
+        <v>0.917241390770018</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9372037668068919</v>
+        <v>0.937203766806892</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9422800950402612</v>
+        <v>0.9419091712642201</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9014256155972927</v>
+        <v>0.9013522185970877</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.926629192113624</v>
+        <v>0.9259642409480109</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9692049750771402</v>
+        <v>0.9685603852364351</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9306685061877525</v>
+        <v>0.9302361783458791</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9468871767365221</v>
+        <v>0.9462585841368755</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.9334816859274898</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9438475116132969</v>
+        <v>0.9438475116132968</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9344631236694834</v>
+        <v>0.9368365546002956</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9183730512441888</v>
+        <v>0.9187756320986215</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9320669543338463</v>
+        <v>0.9330902465902013</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9658043507553695</v>
+        <v>0.9657310389886002</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.945980844894179</v>
+        <v>0.9472954210838135</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9536415471132548</v>
+        <v>0.9537141254162844</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9384098397728383</v>
+        <v>0.9384098397728382</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.9044700774193122</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9209304991958522</v>
+        <v>0.920930499195852</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9290885697499277</v>
+        <v>0.9302204500193429</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8963602035322999</v>
+        <v>0.8960717503226413</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9150037377419725</v>
+        <v>0.914922597960659</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9467102492197496</v>
+        <v>0.9464945914542268</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9122401132332264</v>
+        <v>0.9122085778148482</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9264743834298492</v>
+        <v>0.9266697842440395</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>419351</v>
+        <v>418510</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>505697</v>
+        <v>506427</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>934605</v>
+        <v>937798</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>448917</v>
+        <v>448220</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>537666</v>
+        <v>536358</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>977925</v>
+        <v>980668</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>880392</v>
+        <v>881579</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>992569</v>
+        <v>994045</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1886134</v>
+        <v>1887887</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>913728</v>
+        <v>914124</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1026206</v>
+        <v>1026870</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1934159</v>
+        <v>1932414</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>986076</v>
+        <v>985688</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>944371</v>
+        <v>944294</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1940474</v>
+        <v>1939081</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1014253</v>
+        <v>1013578</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>975007</v>
+        <v>974554</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1982896</v>
+        <v>1981580</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>911970</v>
+        <v>914286</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>835452</v>
+        <v>835818</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1757541</v>
+        <v>1759470</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>942556</v>
+        <v>942485</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>860567</v>
+        <v>861763</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1798223</v>
+        <v>1798360</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3234421</v>
+        <v>3238362</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3313646</v>
+        <v>3312580</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6567955</v>
+        <v>6567373</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3295767</v>
+        <v>3295016</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3372351</v>
+        <v>3372234</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6650292</v>
+        <v>6651695</v>
       </c>
     </row>
     <row r="24">
